--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07063182192887649</v>
+        <v>-0.0784267163893963</v>
       </c>
       <c r="C2">
-        <v>0.6374668323486471</v>
+        <v>0.6014770122109919</v>
       </c>
       <c r="D2">
-        <v>0.7323383739508488</v>
+        <v>0.6889838446909433</v>
       </c>
       <c r="E2">
-        <v>0.8557677102758954</v>
+        <v>0.8300505073132257</v>
       </c>
       <c r="F2">
-        <v>0.8775732365708828</v>
+        <v>0.8489807222683462</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.09870962882074971</v>
+        <v>-0.1025119037381019</v>
       </c>
       <c r="C3">
-        <v>0.7059919492982918</v>
+        <v>0.6613299526921388</v>
       </c>
       <c r="D3">
-        <v>0.8796455850157681</v>
+        <v>0.8215310669073134</v>
       </c>
       <c r="E3">
-        <v>0.937894229119557</v>
+        <v>0.9063835098385856</v>
       </c>
       <c r="F3">
-        <v>0.9613900711110723</v>
+        <v>0.9266766292061702</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01678871442635657</v>
+        <v>0.007029451631606786</v>
       </c>
       <c r="C4">
-        <v>0.6322440261489988</v>
+        <v>0.5882322708542835</v>
       </c>
       <c r="D4">
-        <v>0.5308614833866803</v>
+        <v>0.4919477886271549</v>
       </c>
       <c r="E4">
-        <v>0.7286024179116346</v>
+        <v>0.7013898977224828</v>
       </c>
       <c r="F4">
-        <v>0.7522975457123973</v>
+        <v>0.7229398480521881</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1021924308151797</v>
+        <v>0.08761989786705919</v>
       </c>
       <c r="C5">
-        <v>0.4766916186884629</v>
+        <v>0.4400362220161121</v>
       </c>
       <c r="D5">
-        <v>0.3218858385462006</v>
+        <v>0.2943530511839517</v>
       </c>
       <c r="E5">
-        <v>0.5673498378832945</v>
+        <v>0.5425431330170457</v>
       </c>
       <c r="F5">
-        <v>0.5776577202346855</v>
+        <v>0.5529805828361719</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1427210669180627</v>
+        <v>0.126447536190323</v>
       </c>
       <c r="C6">
-        <v>0.5732993801560181</v>
+        <v>0.5254135465362988</v>
       </c>
       <c r="D6">
-        <v>0.5253475236468959</v>
+        <v>0.4807614626535618</v>
       </c>
       <c r="E6">
-        <v>0.7248086117361574</v>
+        <v>0.693369643591037</v>
       </c>
       <c r="F6">
-        <v>0.7374433532281711</v>
+        <v>0.7056702613561491</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1921960192794551</v>
+        <v>0.1753236501719707</v>
       </c>
       <c r="C7">
-        <v>0.5650153765148906</v>
+        <v>0.5133168387277518</v>
       </c>
       <c r="D7">
-        <v>0.456737885205824</v>
+        <v>0.4122335504200531</v>
       </c>
       <c r="E7">
-        <v>0.6758238566415247</v>
+        <v>0.6420541647089076</v>
       </c>
       <c r="F7">
-        <v>0.6743751107461399</v>
+        <v>0.6409687592018587</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1836981614673011</v>
+        <v>0.1711200621906368</v>
       </c>
       <c r="C8">
-        <v>0.6246506964260639</v>
+        <v>0.5664235858473783</v>
       </c>
       <c r="D8">
-        <v>0.5213307449981701</v>
+        <v>0.4676572605208214</v>
       </c>
       <c r="E8">
-        <v>0.7220323711567025</v>
+        <v>0.6838547071716488</v>
       </c>
       <c r="F8">
-        <v>0.7293227721449064</v>
+        <v>0.6891345661333148</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2187938257684424</v>
+        <v>0.2215176019925603</v>
       </c>
       <c r="C9">
-        <v>0.5366822145265988</v>
+        <v>0.5017932260683228</v>
       </c>
       <c r="D9">
-        <v>0.43141795928731</v>
+        <v>0.3910326139135445</v>
       </c>
       <c r="E9">
-        <v>0.6568241463948398</v>
+        <v>0.6253260061068502</v>
       </c>
       <c r="F9">
-        <v>0.6495397933939154</v>
+        <v>0.610778251015726</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2243110414877413</v>
+        <v>0.214449951378639</v>
       </c>
       <c r="C10">
-        <v>0.4769102598872403</v>
+        <v>0.4406311141385629</v>
       </c>
       <c r="D10">
-        <v>0.2850223604201413</v>
+        <v>0.2572337742857695</v>
       </c>
       <c r="E10">
-        <v>0.5338748546430534</v>
+        <v>0.5071821904264477</v>
       </c>
       <c r="F10">
-        <v>0.5106715807931814</v>
+        <v>0.4820471884612707</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1803385400934691</v>
+        <v>0.1725523049316589</v>
       </c>
       <c r="C11">
-        <v>0.5990107135919848</v>
+        <v>0.5360107823372657</v>
       </c>
       <c r="D11">
-        <v>0.4950956870963316</v>
+        <v>0.4134394327613503</v>
       </c>
       <c r="E11">
-        <v>0.7036303625457984</v>
+        <v>0.6429925604245746</v>
       </c>
       <c r="F11">
-        <v>0.7213843707136639</v>
+        <v>0.6529123940078213</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0784267163893963</v>
+        <v>-0.1025119037381019</v>
       </c>
       <c r="C2">
-        <v>0.6014770122109919</v>
+        <v>0.6613299526921388</v>
       </c>
       <c r="D2">
-        <v>0.6889838446909433</v>
+        <v>0.8215310669073134</v>
       </c>
       <c r="E2">
-        <v>0.8300505073132257</v>
+        <v>0.9063835098385856</v>
       </c>
       <c r="F2">
-        <v>0.8489807222683462</v>
+        <v>0.9266766292061702</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1025119037381019</v>
+        <v>0.007029451631606786</v>
       </c>
       <c r="C3">
-        <v>0.6613299526921388</v>
+        <v>0.5882322708542835</v>
       </c>
       <c r="D3">
-        <v>0.8215310669073134</v>
+        <v>0.4919477886271549</v>
       </c>
       <c r="E3">
-        <v>0.9063835098385856</v>
+        <v>0.7013898977224828</v>
       </c>
       <c r="F3">
-        <v>0.9266766292061702</v>
+        <v>0.7229398480521881</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.007029451631606786</v>
+        <v>0.08761989786705919</v>
       </c>
       <c r="C4">
-        <v>0.5882322708542835</v>
+        <v>0.4400362220161121</v>
       </c>
       <c r="D4">
-        <v>0.4919477886271549</v>
+        <v>0.2943530511839517</v>
       </c>
       <c r="E4">
-        <v>0.7013898977224828</v>
+        <v>0.5425431330170457</v>
       </c>
       <c r="F4">
-        <v>0.7229398480521881</v>
+        <v>0.5529805828361719</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08761989786705919</v>
+        <v>0.126447536190323</v>
       </c>
       <c r="C5">
-        <v>0.4400362220161121</v>
+        <v>0.5254135465362988</v>
       </c>
       <c r="D5">
-        <v>0.2943530511839517</v>
+        <v>0.4807614626535618</v>
       </c>
       <c r="E5">
-        <v>0.5425431330170457</v>
+        <v>0.693369643591037</v>
       </c>
       <c r="F5">
-        <v>0.5529805828361719</v>
+        <v>0.7056702613561491</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.126447536190323</v>
+        <v>0.1753236501719707</v>
       </c>
       <c r="C6">
-        <v>0.5254135465362988</v>
+        <v>0.5133168387277518</v>
       </c>
       <c r="D6">
-        <v>0.4807614626535618</v>
+        <v>0.4122335504200531</v>
       </c>
       <c r="E6">
-        <v>0.693369643591037</v>
+        <v>0.6420541647089076</v>
       </c>
       <c r="F6">
-        <v>0.7056702613561491</v>
+        <v>0.6409687592018587</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1753236501719707</v>
+        <v>0.1711200621906368</v>
       </c>
       <c r="C7">
-        <v>0.5133168387277518</v>
+        <v>0.5664235858473783</v>
       </c>
       <c r="D7">
-        <v>0.4122335504200531</v>
+        <v>0.4676572605208214</v>
       </c>
       <c r="E7">
-        <v>0.6420541647089076</v>
+        <v>0.6838547071716488</v>
       </c>
       <c r="F7">
-        <v>0.6409687592018587</v>
+        <v>0.6891345661333148</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1711200621906368</v>
+        <v>0.2215176019925603</v>
       </c>
       <c r="C8">
-        <v>0.5664235858473783</v>
+        <v>0.5017932260683228</v>
       </c>
       <c r="D8">
-        <v>0.4676572605208214</v>
+        <v>0.3910326139135445</v>
       </c>
       <c r="E8">
-        <v>0.6838547071716488</v>
+        <v>0.6253260061068502</v>
       </c>
       <c r="F8">
-        <v>0.6891345661333148</v>
+        <v>0.610778251015726</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2215176019925603</v>
+        <v>0.214449951378639</v>
       </c>
       <c r="C9">
-        <v>0.5017932260683228</v>
+        <v>0.4406311141385629</v>
       </c>
       <c r="D9">
-        <v>0.3910326139135445</v>
+        <v>0.2572337742857695</v>
       </c>
       <c r="E9">
-        <v>0.6253260061068502</v>
+        <v>0.5071821904264477</v>
       </c>
       <c r="F9">
-        <v>0.610778251015726</v>
+        <v>0.4820471884612707</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.214449951378639</v>
+        <v>0.1725523049316589</v>
       </c>
       <c r="C10">
-        <v>0.4406311141385629</v>
+        <v>0.5360107823372657</v>
       </c>
       <c r="D10">
-        <v>0.2572337742857695</v>
+        <v>0.4134394327613503</v>
       </c>
       <c r="E10">
-        <v>0.5071821904264477</v>
+        <v>0.6429925604245746</v>
       </c>
       <c r="F10">
-        <v>0.4820471884612707</v>
+        <v>0.6529123940078213</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1725523049316589</v>
+        <v>0.08702659289064565</v>
       </c>
       <c r="C11">
-        <v>0.5360107823372657</v>
+        <v>0.552660861616738</v>
       </c>
       <c r="D11">
-        <v>0.4134394327613503</v>
+        <v>0.4356818832333129</v>
       </c>
       <c r="E11">
-        <v>0.6429925604245746</v>
+        <v>0.660062029837585</v>
       </c>
       <c r="F11">
-        <v>0.6529123940078213</v>
+        <v>0.693989760215202</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1025119037381019</v>
+        <v>-0.0784267163893963</v>
       </c>
       <c r="C2">
-        <v>0.6613299526921388</v>
+        <v>0.6014770122109919</v>
       </c>
       <c r="D2">
-        <v>0.8215310669073134</v>
+        <v>0.6889838446909433</v>
       </c>
       <c r="E2">
-        <v>0.9063835098385856</v>
+        <v>0.8300505073132257</v>
       </c>
       <c r="F2">
-        <v>0.9266766292061702</v>
+        <v>0.8489807222683462</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.007029451631606786</v>
+        <v>-0.1025119037381019</v>
       </c>
       <c r="C3">
-        <v>0.5882322708542835</v>
+        <v>0.6613299526921388</v>
       </c>
       <c r="D3">
-        <v>0.4919477886271549</v>
+        <v>0.8215310669073134</v>
       </c>
       <c r="E3">
-        <v>0.7013898977224828</v>
+        <v>0.9063835098385856</v>
       </c>
       <c r="F3">
-        <v>0.7229398480521881</v>
+        <v>0.9266766292061702</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08761989786705919</v>
+        <v>0.007029451631606786</v>
       </c>
       <c r="C4">
-        <v>0.4400362220161121</v>
+        <v>0.5882322708542835</v>
       </c>
       <c r="D4">
-        <v>0.2943530511839517</v>
+        <v>0.4919477886271549</v>
       </c>
       <c r="E4">
-        <v>0.5425431330170457</v>
+        <v>0.7013898977224828</v>
       </c>
       <c r="F4">
-        <v>0.5529805828361719</v>
+        <v>0.7229398480521881</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.126447536190323</v>
+        <v>0.08761989786705919</v>
       </c>
       <c r="C5">
-        <v>0.5254135465362988</v>
+        <v>0.4400362220161121</v>
       </c>
       <c r="D5">
-        <v>0.4807614626535618</v>
+        <v>0.2943530511839517</v>
       </c>
       <c r="E5">
-        <v>0.693369643591037</v>
+        <v>0.5425431330170457</v>
       </c>
       <c r="F5">
-        <v>0.7056702613561491</v>
+        <v>0.5529805828361719</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1753236501719707</v>
+        <v>0.126447536190323</v>
       </c>
       <c r="C6">
-        <v>0.5133168387277518</v>
+        <v>0.5254135465362988</v>
       </c>
       <c r="D6">
-        <v>0.4122335504200531</v>
+        <v>0.4807614626535618</v>
       </c>
       <c r="E6">
-        <v>0.6420541647089076</v>
+        <v>0.693369643591037</v>
       </c>
       <c r="F6">
-        <v>0.6409687592018587</v>
+        <v>0.7056702613561491</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1711200621906368</v>
+        <v>0.1753236501719707</v>
       </c>
       <c r="C7">
-        <v>0.5664235858473783</v>
+        <v>0.5133168387277518</v>
       </c>
       <c r="D7">
-        <v>0.4676572605208214</v>
+        <v>0.4122335504200531</v>
       </c>
       <c r="E7">
-        <v>0.6838547071716488</v>
+        <v>0.6420541647089076</v>
       </c>
       <c r="F7">
-        <v>0.6891345661333148</v>
+        <v>0.6409687592018587</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2215176019925603</v>
+        <v>0.1711200621906368</v>
       </c>
       <c r="C8">
-        <v>0.5017932260683228</v>
+        <v>0.5664235858473783</v>
       </c>
       <c r="D8">
-        <v>0.3910326139135445</v>
+        <v>0.4676572605208214</v>
       </c>
       <c r="E8">
-        <v>0.6253260061068502</v>
+        <v>0.6838547071716488</v>
       </c>
       <c r="F8">
-        <v>0.610778251015726</v>
+        <v>0.6891345661333148</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.214449951378639</v>
+        <v>0.2215176019925603</v>
       </c>
       <c r="C9">
-        <v>0.4406311141385629</v>
+        <v>0.5017932260683228</v>
       </c>
       <c r="D9">
-        <v>0.2572337742857695</v>
+        <v>0.3910326139135445</v>
       </c>
       <c r="E9">
-        <v>0.5071821904264477</v>
+        <v>0.6253260061068502</v>
       </c>
       <c r="F9">
-        <v>0.4820471884612707</v>
+        <v>0.610778251015726</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1725523049316589</v>
+        <v>0.214449951378639</v>
       </c>
       <c r="C10">
-        <v>0.5360107823372657</v>
+        <v>0.4406311141385629</v>
       </c>
       <c r="D10">
-        <v>0.4134394327613503</v>
+        <v>0.2572337742857695</v>
       </c>
       <c r="E10">
-        <v>0.6429925604245746</v>
+        <v>0.5071821904264477</v>
       </c>
       <c r="F10">
-        <v>0.6529123940078213</v>
+        <v>0.4820471884612707</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08702659289064565</v>
+        <v>0.1725523049316589</v>
       </c>
       <c r="C11">
-        <v>0.552660861616738</v>
+        <v>0.5360107823372657</v>
       </c>
       <c r="D11">
-        <v>0.4356818832333129</v>
+        <v>0.4134394327613503</v>
       </c>
       <c r="E11">
-        <v>0.660062029837585</v>
+        <v>0.6429925604245746</v>
       </c>
       <c r="F11">
-        <v>0.693989760215202</v>
+        <v>0.6529123940078213</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
